--- a/TP2/Ej1/Mediciones No inversor/Zin/Caso3.xlsx
+++ b/TP2/Ej1/Mediciones No inversor/Zin/Caso3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\GitHub\TC\TP2\Ej1\Mediciones No inversor\Zin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE2D56-A57D-4B27-BD2F-533C9519DDB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0ABA2-7F76-499A-AC9D-165640FEC398}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,7 +359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -379,7 +381,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-12.3</v>
+        <v>309073.13932299841</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -390,7 +392,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>-12.2</v>
+        <v>305535.20835308533</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -401,7 +403,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>-12.2</v>
+        <v>305535.20835308533</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -412,7 +414,7 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>-12.1</v>
+        <v>302037.7757440951</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -423,7 +425,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>-11.8</v>
+        <v>291783.85874571069</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -434,7 +436,7 @@
         <v>3000</v>
       </c>
       <c r="B7">
-        <v>-11.4</v>
+        <v>278651.4218228797</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -445,7 +447,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>-10.8</v>
+        <v>260052.6378393991</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -456,7 +458,7 @@
         <v>5000</v>
       </c>
       <c r="B9">
-        <v>-10.199999999999999</v>
+        <v>242695.24269722204</v>
       </c>
       <c r="C9">
         <v>26</v>
@@ -467,7 +469,7 @@
         <v>6000</v>
       </c>
       <c r="B10">
-        <v>-9.6</v>
+        <v>226496.37903015167</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -478,7 +480,7 @@
         <v>7000</v>
       </c>
       <c r="B11">
-        <v>-9</v>
+        <v>211378.7198448345</v>
       </c>
       <c r="C11">
         <v>34</v>
@@ -489,7 +491,7 @@
         <v>8000</v>
       </c>
       <c r="B12">
-        <v>-8.5</v>
+        <v>199554.37948491122</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -500,7 +502,7 @@
         <v>10000</v>
       </c>
       <c r="B13">
-        <v>-7.4</v>
+        <v>175817.1611489947</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -511,7 +513,7 @@
         <v>12000</v>
       </c>
       <c r="B14">
-        <v>-6.5</v>
+        <v>158511.67798774879</v>
       </c>
       <c r="C14">
         <v>37</v>
@@ -522,7 +524,7 @@
         <v>15000</v>
       </c>
       <c r="B15">
-        <v>-5.3</v>
+        <v>138057.90011017199</v>
       </c>
       <c r="C15">
         <v>37</v>
@@ -533,7 +535,7 @@
         <v>20000</v>
       </c>
       <c r="B16">
-        <v>-3.9</v>
+        <v>117506.33025811131</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -544,7 +546,7 @@
         <v>22000</v>
       </c>
       <c r="B17">
-        <v>-3.5</v>
+        <v>112217.67420708285</v>
       </c>
       <c r="C17">
         <v>33</v>
@@ -555,7 +557,7 @@
         <v>25000</v>
       </c>
       <c r="B18">
-        <v>-2.9</v>
+        <v>104727.62707919549</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -566,7 +568,7 @@
         <v>30000</v>
       </c>
       <c r="B19">
-        <v>-2.2999999999999998</v>
+        <v>97737.508383922643</v>
       </c>
       <c r="C19">
         <v>29</v>
@@ -577,7 +579,7 @@
         <v>32000</v>
       </c>
       <c r="B20">
-        <v>-2.1</v>
+        <v>95512.731076249824</v>
       </c>
       <c r="C20">
         <v>26</v>
@@ -588,7 +590,7 @@
         <v>35000</v>
       </c>
       <c r="B21">
-        <v>-1.8</v>
+        <v>92270.157810928649</v>
       </c>
       <c r="C21">
         <v>26</v>
@@ -599,7 +601,7 @@
         <v>40000</v>
       </c>
       <c r="B22">
-        <v>-1.5</v>
+        <v>89137.667057776591</v>
       </c>
       <c r="C22">
         <v>23</v>
@@ -610,7 +612,7 @@
         <v>42000</v>
       </c>
       <c r="B23">
-        <v>-1.4</v>
+        <v>88117.316620464917</v>
       </c>
       <c r="C23">
         <v>23</v>
@@ -621,7 +623,7 @@
         <v>50000</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>84151.384072647474</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -632,7 +634,7 @@
         <v>60000</v>
       </c>
       <c r="B25">
-        <v>-0.8</v>
+        <v>82235.864710738941</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -643,7 +645,7 @@
         <v>70000</v>
       </c>
       <c r="B26">
-        <v>-0.6</v>
+        <v>80363.94789282055</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -654,7 +656,7 @@
         <v>80000</v>
       </c>
       <c r="B27">
-        <v>-0.5</v>
+        <v>79444.029388296884</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -665,7 +667,7 @@
         <v>90000</v>
       </c>
       <c r="B28">
-        <v>-0.4</v>
+        <v>78534.641103817688</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -676,7 +678,7 @@
         <v>100000</v>
       </c>
       <c r="B29">
-        <v>-0.31</v>
+        <v>77725.095332328274</v>
       </c>
       <c r="C29">
         <v>11.1</v>
@@ -687,7 +689,7 @@
         <v>120000</v>
       </c>
       <c r="B30">
-        <v>-0.3</v>
+        <v>77635.662500951003</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -698,7 +700,7 @@
         <v>200000</v>
       </c>
       <c r="B31">
-        <v>-0.15</v>
+        <v>76306.452463545458</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -709,7 +711,7 @@
         <v>300000</v>
       </c>
       <c r="B32">
-        <v>-0.1</v>
+        <v>75868.459069492485</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -720,7 +722,7 @@
         <v>400000</v>
       </c>
       <c r="B33">
-        <v>-0.1</v>
+        <v>75868.459069492485</v>
       </c>
       <c r="C33">
         <v>2</v>
